--- a/Project Testcases.xlsx
+++ b/Project Testcases.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="15315" windowHeight="7590" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="15315" windowHeight="7590" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Create Lead" sheetId="3" r:id="rId1"/>
-    <sheet name="Delete Lead" sheetId="5" r:id="rId2"/>
+    <sheet name="Edit Lead" sheetId="4" r:id="rId2"/>
     <sheet name="Duplicate Lead" sheetId="7" r:id="rId3"/>
-    <sheet name="Merge Lead" sheetId="6" r:id="rId4"/>
-    <sheet name="Edit Lead" sheetId="4" r:id="rId5"/>
+    <sheet name="Delete Lead" sheetId="5" r:id="rId4"/>
+    <sheet name="Merge Lead" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -932,6 +932,505 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="12"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="15"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:F6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="12"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="15"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:F6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor theme="5" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -1195,259 +1694,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F18"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C2:F6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
@@ -1809,248 +2056,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor theme="5" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:F17"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:F13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C2:F6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>